--- a/phone2.xlsx
+++ b/phone2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dean.yang\Documents\GitHub\openaiChat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977ADE5F-0244-496C-A49C-39A091734DE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0047C3B6-8926-4850-B3CD-9EA55AD34EA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8880" xr2:uid="{CF471186-B6FC-439F-8BE7-ADB1AFE534C7}"/>
   </bookViews>
@@ -25,101 +25,418 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+  <si>
+    <t>代辦車牌報廢需要準備什麼資料？</t>
+  </si>
+  <si>
+    <t>你們會不會盜用我的個資？</t>
+  </si>
+  <si>
+    <t>您好，大豐環保通過ISO 9001服務認證，已服務全台民眾10餘年，您可以放心。</t>
+  </si>
+  <si>
+    <t>我們可代申請獎勵金，也可為您代辦車牌報廢，若有需要協助請和我們說。</t>
+  </si>
+  <si>
+    <t>我要如何知道監理站有沒有獎勵金專責櫃台？</t>
+  </si>
+  <si>
+    <t>車牌監理站報廢辦要準備什麼？</t>
+  </si>
+  <si>
+    <t>監理站報廢車牌的流程是什麼？</t>
+  </si>
+  <si>
+    <t>沒有行照可以報廢嗎?</t>
+  </si>
+  <si>
+    <t>拖車現場要有人在嗎?</t>
+  </si>
+  <si>
+    <t>還沒驗車可以報廢嗎?</t>
+  </si>
+  <si>
+    <t>若您在驗車期限內完成報廢，尚未驗車不會產生罰單；若您於驗車日期過後進行報廢，會產生需自行前往監理站繳納的罰金。</t>
+  </si>
+  <si>
+    <t>空污/溫室氣體補助要去哪裡申請</t>
+  </si>
+  <si>
+    <t>拖車現場給現金還是匯款</t>
+  </si>
+  <si>
+    <t>您好，司機會於現場確認車況後，請您簽收現金，若您需要採用『匯款』方式，請提前告訴我們。</t>
+  </si>
+  <si>
+    <t>我可以先報廢車子再繳汽燃稅嗎？</t>
+  </si>
+  <si>
+    <t>汽燃稅已經繳完了，退稅怎麼辦？</t>
+  </si>
+  <si>
+    <t>怎樣會收到汽燃退稅支票，或是現金?</t>
+  </si>
+  <si>
+    <t>請問車輛拖吊是免費的嗎?</t>
+  </si>
+  <si>
+    <t>您好，若車輛置於平面道路，沒有限寬與限高的問題，且路寬足以提供大型垃圾車進入，都提供免費到府拖吊！</t>
+  </si>
+  <si>
+    <t>請問怎麼認定觸媒是否為原廠?</t>
+  </si>
+  <si>
+    <t>車主過世如何報廢車輛</t>
+  </si>
+  <si>
+    <t>我可以拆零件嗎</t>
+  </si>
+  <si>
+    <t>您好，我們都是提供完整零件的報價，若您有確認想要拆卸的零件，請和我們告知，我們會請廠區人員評估。</t>
+  </si>
+  <si>
+    <t>要先報廢車牌還是車體？</t>
+  </si>
+  <si>
+    <t>您好，可先處理報廢車輛，也可先報廢車牌，沒有一定的先後順序，建議優先處理車體，因回收商可協助代辦車牌報廢。</t>
+  </si>
+  <si>
+    <t>車牌有規定多久要報廢嗎</t>
+  </si>
+  <si>
+    <t>您好，車輛回收後請於10天內將車牌繳回監理站，避免影響權益。</t>
+  </si>
+  <si>
+    <t>您好，若要申請舊換新補助，請於報廢車輛前後6個月內購置新車。</t>
+  </si>
+  <si>
+    <t>您好，汽車出場需滿10年，且持有一年，新舊車主需為二等親以內之親屬(無須同戶籍，姻親血親也可)。</t>
+  </si>
+  <si>
+    <t>立體停車場2樓以上那種可以拖吊嗎</t>
+  </si>
+  <si>
+    <t>您好，要請車主或代辦人將報廢車輛移到一樓平面，謝謝。</t>
+  </si>
+  <si>
+    <t>廠區在哪裡? 開進去有補貼嗎?</t>
+  </si>
+  <si>
+    <t>您好，我們廠區在(*地址*)，開進廠補貼車馬費(*每間費用有差異*)元。</t>
+  </si>
+  <si>
+    <t>豐騎士俱樂部餐券有期限嗎</t>
+  </si>
+  <si>
+    <t>您好，請於票券上使用期限前，前往餐廳用餐即可。</t>
+  </si>
+  <si>
+    <t>請問保險退保需準備什麼證件</t>
+  </si>
+  <si>
+    <t>您好，請準備車主身分證影本，以及報廢單（車輛異動登記書）即可。</t>
+  </si>
+  <si>
+    <t>車牌已報廢，可以代申請獎勵金嗎?</t>
+  </si>
+  <si>
+    <t>您好，可以的，上傳車主帳戶即可。</t>
+  </si>
+  <si>
+    <t>車主本人一定要到場嗎?</t>
+  </si>
+  <si>
+    <t>如果車主不方便到場也沒關係，可以將證件影本準備齊全，交給代理人協助。</t>
+  </si>
+  <si>
+    <t>貸款中的車輛，車主本人一定要到場嗎?</t>
+  </si>
+  <si>
+    <t>是的，車主本人必須到場簽切結書。</t>
+  </si>
+  <si>
+    <t>有人員於車內往生的車輛可收嗎?</t>
+  </si>
+  <si>
+    <t>這部分車輛，我們無法處理。</t>
+  </si>
+  <si>
+    <t>請問有零件可買嗎?</t>
+  </si>
+  <si>
+    <t>目前沒有販售零件。</t>
+  </si>
+  <si>
+    <t>不知道車主是誰的車輛，可以幫忙報廢嗎?</t>
+  </si>
+  <si>
+    <t>家裡有小家電可以一起載走嗎?</t>
+  </si>
+  <si>
+    <t>因廢車跟家電回收為不同業務車趟，無法一起回收喔。</t>
+  </si>
+  <si>
+    <t>您好~這邊已通知司機大哥，會盡快與您聯繫確認時間喔。</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>全系統無紙化服務是我們的特色服務，讓您無需紙本文件即可完成報廢手續。您將享有完整的報廢資訊，包括補助申請教學、專屬汽燃稅繳廢簡訊、專屬報廢單下載連結、以及收車完成通知等系統化服務。當然，有些特殊情況（例如車主過世、行照遺失、已自行報廢車牌者等）可能會有例外情況。</t>
+  </si>
+  <si>
+    <t>有代辦報廢車牌的服務嗎？</t>
+  </si>
+  <si>
+    <t>是的，我們提供免費代辦車牌報廢以及獎勵金申請的服務。如果您需要我們的代辦服務，請告訴我們，我們將為您處理。</t>
+  </si>
+  <si>
+    <t>為了代辦車牌報廢，您只需準備行照以及車主帳戶即可。您可以在一天內將這些資料上傳至官方帳號。行照主要是為了確認車籍資料，而車主帳戶則用於申請獎勵金與退稅。</t>
+  </si>
+  <si>
+    <t>我們提供車牌免費報廢服務，並且可以協助您申請獎勵金。如果您希望親自辦理報廢，請準備行照正本、車主（或代辦人）的身份證、車主的印章，以及車牌，然後前往監理所辦理相關手續。</t>
+  </si>
+  <si>
+    <t>當您決定報廢車牌時，首先，請先至汽燃與牌照櫃檯核對是否有未繳稅金。確認完畢後，您可以前往一般櫃檯完成車牌的報廢手續。在這之後，您還可以至獎勵金專責櫃台申請獎勵金。</t>
+  </si>
+  <si>
+    <t>當然可以。但如果您沒有行照，您可請委託回收商協助代辦，或者自己線上申請報廢。如果您選擇臨櫃辦理，則必須出示行照正本。</t>
+  </si>
+  <si>
+    <t>對於車主過世的情況，您需要提供除戶或死亡的證明以及行照，我們便可協助您進行車體和車牌的回收。</t>
+  </si>
+  <si>
+    <t>很抱歉，這樣的情況下我們不能協助您。建議您可以與當地的環保局或警察局聯繫處理。</t>
+  </si>
+  <si>
+    <t>要如何確認已經完成報廢手續？</t>
+  </si>
+  <si>
+    <t>完成報廢手續後，您將收到環保署聯單的簡訊通知。</t>
+  </si>
+  <si>
+    <t>如何確定我的機車已經被拖走？</t>
+  </si>
+  <si>
+    <t>當您的機車完成拖吊後，您的手機會收到環保署發出的簡訊，簡訊內容會有環保管制聯單下載連結。</t>
+  </si>
+  <si>
+    <t>如何辨認我要報廢的車輛？</t>
+  </si>
+  <si>
+    <t>當我們的司機到達現場，他們會核對車身號碼或引擎號碼以確認是正確的車輛。</t>
+  </si>
+  <si>
+    <t>我的車牌已經拔掉了，你們怎麼知道我的車是哪一台?</t>
+  </si>
+  <si>
+    <t>龍頭鎖住可以使用無接觸服務嗎?</t>
+  </si>
+  <si>
+    <t>抱歉，如果車輛被鎖住，無法使用無接觸服務。</t>
+  </si>
+  <si>
+    <t>車輛回收時人不需在現場，您可以先報廢車牌完畢後，再後續約車輛拖吊回收服務</t>
+  </si>
+  <si>
+    <t>資料都不見了，可以辦理報廢嗎</t>
+  </si>
+  <si>
+    <t>可以，但需要知道車主的資料跟車號，我們才能幫您作登記拖車。</t>
+  </si>
+  <si>
+    <t>您可撥打電話至您所在縣市監理站確認，各縣市監理站聯繫電話： zz-tw.co/zzphone 。</t>
+  </si>
+  <si>
+    <t>車體有欠稅或罰單能否報廢或回收？</t>
+  </si>
+  <si>
+    <t>您好，若車體有欠稅金或罰單，它仍可以進行回收。</t>
+  </si>
+  <si>
+    <t>車牌欠稅或罰單能否報廢？我為何可以回收車子但車籍不能報廢？</t>
+  </si>
+  <si>
+    <t>您好，可至環保署平台： zz-tw.co/epaone 媒合與申請。</t>
+  </si>
+  <si>
+    <t>您好，若當期汽燃稅尚未繳納，於報廢車輛後仍需結清汽燃欠費，您可透過線上繳費： zz-tw.co/zz-car-fee 。</t>
+  </si>
+  <si>
+    <t>如果您的車體、車牌和獎勵金都由回收商代辦，汽燃稅會退還至您的帳戶。若您自行處理車牌，可能會收到支票或現金。</t>
+  </si>
+  <si>
+    <t>臨櫃處理車牌時，依監理站的政策，部分會直接退現金，但多數提供支票。若您自行在線上申請報廢，退稅將以支票方式提供。</t>
+  </si>
+  <si>
+    <t>車主過世時，獎勵金如何申請或是否可以委託您們代辦？</t>
+  </si>
+  <si>
+    <t>您好，車主過世需提供紙本資料申請，無法透過線上申請，獎勵金參考詳情請參考： zz-tw.co/zz-car-mw-to-cw 。</t>
+  </si>
+  <si>
+    <t>舊換新和貨物稅的申請期限是多久？</t>
+  </si>
+  <si>
+    <t>舊換新的規定和貨物稅的申請方式是什麼？</t>
+  </si>
+  <si>
+    <t>如何退回已付的燃料和牌照稅？</t>
+  </si>
+  <si>
+    <t>我們會協助您線上申請退稅，並退還至您所提供的銀行帳戶</t>
+  </si>
+  <si>
+    <t>我所繳納的稅金會退回嗎？退稅的時程是？</t>
+  </si>
+  <si>
+    <t>可以的，我們會幫您申請退款。汽燃稅約需1個月，牌照稅則約需3個月。</t>
+  </si>
+  <si>
+    <t>不小心給錯銀行帳戶，可修改嗎?</t>
+  </si>
+  <si>
+    <t>可以的</t>
+  </si>
+  <si>
+    <t>目前車體已完成回收，汽燃費也已繳納，請問還需要做什麼嗎?</t>
+  </si>
+  <si>
+    <t>不用喔，只需留意獎勵金入帳</t>
+  </si>
+  <si>
+    <t>晚上有拖車嗎?您們的拖車服務時間是？</t>
+  </si>
+  <si>
+    <t>我們的拖車服務時間為周一至周六的上午九點至下午五點</t>
+  </si>
+  <si>
+    <t>若是預約汽車回收，需要有人在場簽收並點收現金。但若提前提出代簽需求並採用匯款方式，則無需到場。預約機車回收時，您無需親自到場。</t>
+  </si>
+  <si>
+    <t>詢問拖吊時間?</t>
+  </si>
+  <si>
+    <t>想知道何時會來拖?</t>
+  </si>
+  <si>
+    <t>公司車要開發票嗎</t>
+  </si>
+  <si>
+    <t>看您公司需求我們沒有一定要開發票</t>
+  </si>
+  <si>
+    <t>紅牌或黃牌機車報廢?</t>
+  </si>
+  <si>
+    <t>紅牌或黃牌機車回收會有價格，要麻煩您加入LINE提供車輛目前外觀的照片以利估價</t>
+  </si>
+  <si>
+    <t>可以提供大豐相關合法證明嗎？</t>
+  </si>
   <si>
     <t>question</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何註冊zero zero會員？</t>
-  </si>
-  <si>
-    <t>一個手機號碼可以申請幾個zero zero帳號呢？</t>
-  </si>
-  <si>
-    <t>先進入zero zero平台首頁，於畫面右上方點選會員註冊或人物頭項按鈕。
-進入會員註冊頁後，輸入手機號碼，您所填入的手機號碼即為會員帳號。
-完成後送出驗證，將會收到內含驗證碼的手機簡訊。請將手機簡訊內的驗證碼填入，完成驗證。
-驗證成功後，請填寫您欲設定的密碼。並勾選「我已經詳細閱讀、了解與接受zero zero 會員服務條款 與隱私權政策」按鈕。按下「註冊」後就完成註冊啦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一個手機號碼僅能綁定申請一個zero zero帳號，手機號碼即使用者帳號。</t>
-  </si>
-  <si>
-    <t>忘記密碼了嗎？我要如何重設密碼呢？</t>
-  </si>
-  <si>
-    <t>先進入zero zero平台首頁，於畫面右上方點選會員註冊或人物頭項按鈕。
-進入會員註冊頁後，點選右下角的「忘記密碼」。並於畫面上輸入您的手機號碼及您欲設定的新密碼，並點下「獲取驗證碼」。
-我們將發送驗證碼簡訊至您所填寫的手機內，請將驗證碼填入，並按下「驗證」。
-驗證完成後，即可擁有帳號的控制權啦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF22D3C5"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>註冊時，手機號碼顯示「該使用者帳號已經有人使用」該怎麼辦？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>當註冊時，發現手機號碼已被使用，代表已有用戶使用該門號進行帳號註冊申請，您可以依照重設密碼步驟找回帳號的控制權：
-先進入zero zero平台首頁，於畫面右上方點選會員註冊或人物頭項按鈕。
-進入會員註冊頁後，點選右下角的「忘記密碼」。並於畫面上輸入您的手機號碼及您欲設定的新密碼，並點下「獲取驗證碼」。
-我們將發送驗證碼簡訊至您所填寫的手機內，請將驗證碼填入，並按下「驗證」。
-驗證完成後，即可擁有帳號的控制權啦！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>註冊時，手機收不到驗證碼該怎辦？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF333333"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>註冊時，手機收不到驗證碼該怎辦？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF22D3C5"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>註冊時，手機收不到驗證碼該怎辦？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歡迎撥打免費專線0800-009-717，我們會盡快為您解決疑問。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什麼是全系統無紙化服務？</t>
+  </si>
+  <si>
+    <t>請問車體拖完，有請你們代辦報廢 ，那要等多久可以下載報廢單?請問車體拖完後，報廢的流程需要多久？</t>
+  </si>
+  <si>
+    <t>如果您已經完成所有的汽燃稅繳納，當車體回收完成後，大約1小時內您將收到報廢單的下載連結。但如果有未繳的汽燃稅，您需要先繳納稅金，繳納完成後1小時內會收到報廢單。</t>
+  </si>
+  <si>
+    <t>在這種情況下，您可以在A4紙上寫下"報廢車輛"，然後將其貼在座墊上，這樣我們的司機可以輕鬆識別出您的車輛。</t>
+  </si>
+  <si>
+    <t>報廢或拖車時需要在現場嗎?</t>
+  </si>
+  <si>
+    <t>剛幫您查詢，您符合環保署的無接觸服務資格，意思就是不用請假也可以完成拖車，只要幫我把機車停在馬路旁就好，您是否需要使用此項服務？接下來會傳送簡訊給您，請您幫我點擊連結確認無接觸服務的內容即可，再麻煩了謝謝</t>
+  </si>
+  <si>
+    <t>什麼是「廢機車無接觸服務，車主免到場」?</t>
+  </si>
+  <si>
+    <t>該如何申請報廢獎勵金?</t>
+  </si>
+  <si>
+    <t>我想自己申請獎勵金就好。</t>
+  </si>
+  <si>
+    <t>好的，請於車體完成回收，與車籍報廢完成後，自行至環保署申請： zz-tw.co/9bnxj 。請注意，不得有任何欠費，且確認車牌已繳回監理站。</t>
+  </si>
+  <si>
+    <t>於監理站繳回車牌後，可以直接申請獎勵金嗎？</t>
+  </si>
+  <si>
+    <t>您好，可以的，監理站都設有獎勵金櫃台，可於辦理車籍報廢時一併申請。若您所在縣市監理站無獎勵金專責櫃台，請透過環保署網站申請。</t>
+  </si>
+  <si>
+    <t>您好，車籍(牌)報廢時需先繳清汽燃稅和罰單才能取得報廢單(異動登記書)。如有因未檢驗或無定檢的罰單，需要您親自繳納且不能委託回收商代辦。</t>
+  </si>
+  <si>
+    <t>我有欠罰單，可以先繳清再請你們代辦嗎？</t>
+  </si>
+  <si>
+    <t>可以的，您可至監理服務網進行繳費： zz-tw.co/zz-pay ，繳費完畢請通知我們協助處理。建議透過線上繳費，可即時入帳；如您至超商繳費，需等待2-3天監理系統才會完成銷帳。</t>
+  </si>
+  <si>
+    <t>貨物稅找誰申請</t>
+  </si>
+  <si>
+    <t xml:space="preserve">請將回收管制聯單、報廢單(異動登記書)、新車領牌登記與新車完稅證明，交由經銷商協助申請。更多貨物稅詳情： zz-tw.co/zz-car-ms-to-cs </t>
+  </si>
+  <si>
+    <t>車子報廢還要繳燃料稅嗎？今年還要繳稅金嗎？（會需判定汽燃稅或牌照稅，機車沒有牌照稅）</t>
+  </si>
+  <si>
+    <t>您好，可以的，汽燃稅只需繳納當年1/1至報廢前一天的費用即可。舉例：小明車輛於112/6/30報廢，小明只需繳112/1/1-112/6/29的汽燃稅。</t>
+  </si>
+  <si>
+    <t>車輛回收後，多久可以線上申請獎勵金</t>
+  </si>
+  <si>
+    <t>您好，車體拖吊後，需三個工作天處理回收車輛並回報主管機關實際車體回收狀況，請您於拖吊日起算，第四天即可登入線上申請系統申請獎勵金。倘若您第四天無法申請，則代表可能有欠繳汽燃稅，或是車牌尚未繳回監理站。</t>
+  </si>
+  <si>
+    <t>舊換新的單據怎麼拿?</t>
+  </si>
+  <si>
+    <t>車體回收完成後，您可以從以下連結下載所需的單據：報廢單(異動登記書): zz-tw.co/zz-car-dow, 環保管制聯單: zz-tw.co/zz-car-epa</t>
+  </si>
+  <si>
+    <t>大豐是合法業者嗎？</t>
+  </si>
+  <si>
+    <t>您好，大豐環保為合法回收商，且全台都有提供免費到府回收。【回收字號】北府環衛廢回收字第001號 南市回收字第098號</t>
+  </si>
+  <si>
+    <t>您好，基本上若車輛無特別改造，我們都會判定為原廠觸媒，司機到現場會再協助確認，或您可以於拖車前，請熟識的保養廠協助確認。如您有改造或異動非原廠觸媒，請於報價時告知。</t>
+  </si>
+  <si>
+    <t>你們報價有原廠觸媒，怎麼到現場沒給錢呢?</t>
+  </si>
+  <si>
+    <t>您好，於通話時我們都有明確告知，鋁圈、觸媒等零件，都需要司機現場判定後，才會提供對應的回收金。1.您的觸媒已被拆卸 2.您的觸媒非原廠 3.車輛本身無觸媒</t>
+  </si>
+  <si>
+    <t>司機到現場發現不是原廠觸媒，怎麼辦。</t>
+  </si>
+  <si>
+    <t>請問發票金額.品項怎麼開</t>
+  </si>
+  <si>
+    <t>內容:內含稅___(實收金額) 品項:報廢車輛乙台（車號）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,43 +475,17 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF22D3C5"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF22D3C5"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,11 +496,24 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -220,7 +524,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,20 +534,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" indent="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1109,7 +1405,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1165,7 +1461,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1221,7 +1517,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1277,7 +1573,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1333,7 +1629,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1389,7 +1685,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1445,7 +1741,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1501,7 +1797,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1557,7 +1853,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1613,7 +1909,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1669,7 +1965,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1725,7 +2021,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1781,7 +2077,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1837,7 +2133,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1893,7 +2189,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -1949,7 +2245,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -2005,7 +2301,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -2061,7 +2357,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2117,7 +2413,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2173,7 +2469,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2229,7 +2525,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2285,7 +2581,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2341,7 +2637,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2397,7 +2693,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2453,7 +2749,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2509,7 +2805,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2565,7 +2861,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2621,7 +2917,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2677,7 +2973,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2733,7 +3029,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2789,7 +3085,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2845,7 +3141,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2901,7 +3197,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -2957,7 +3253,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -3013,7 +3309,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -3909,7 +4205,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -3965,7 +4261,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4021,7 +4317,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4077,7 +4373,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4133,7 +4429,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4189,7 +4485,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4245,7 +4541,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4301,7 +4597,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4357,7 +4653,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4413,7 +4709,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4469,7 +4765,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4525,7 +4821,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4581,7 +4877,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4637,7 +4933,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4693,7 +4989,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4749,7 +5045,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4805,7 +5101,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="238125"/>
@@ -4861,7 +5157,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -4917,7 +5213,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -4973,7 +5269,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5029,7 +5325,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5085,7 +5381,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5141,7 +5437,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5197,7 +5493,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5253,7 +5549,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5309,7 +5605,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5365,7 +5661,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5421,7 +5717,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5477,7 +5773,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5533,7 +5829,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5589,7 +5885,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5645,7 +5941,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5701,7 +5997,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5757,7 +6053,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5813,7 +6109,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5869,7 +6165,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -5925,7 +6221,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="228600"/>
@@ -5981,7 +6277,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="228600"/>
@@ -6037,7 +6333,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="228600"/>
@@ -6093,7 +6389,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="228600"/>
@@ -6149,7 +6445,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="228600"/>
@@ -6205,7 +6501,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="228600"/>
@@ -6261,7 +6557,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="228600"/>
@@ -6317,7 +6613,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="228600"/>
@@ -6373,7 +6669,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="228600"/>
@@ -6429,7 +6725,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="228600"/>
@@ -6485,7 +6781,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104775" cy="228600"/>
@@ -6541,7 +6837,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -6597,7 +6893,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -6653,7 +6949,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -6709,7 +7005,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -6765,7 +7061,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -6821,7 +7117,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -6877,7 +7173,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -6933,7 +7229,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -6989,7 +7285,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7045,7 +7341,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7101,7 +7397,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7157,7 +7453,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7213,7 +7509,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7269,7 +7565,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7325,7 +7621,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7381,7 +7677,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7437,7 +7733,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7493,7 +7789,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7549,7 +7845,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7605,7 +7901,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7661,7 +7957,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7717,7 +8013,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7773,7 +8069,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7829,7 +8125,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7885,7 +8181,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7941,7 +8237,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -7997,7 +8293,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -8053,7 +8349,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -8109,7 +8405,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -8165,7 +8461,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -8221,7 +8517,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -8277,7 +8573,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -8333,7 +8629,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -8389,7 +8685,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -8445,7 +8741,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -8501,7 +8797,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="95250" cy="247650"/>
@@ -8521,6 +8817,1014 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2903220" y="14325600"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E689DB59-08FB-4EF4-88CD-2E50A39CF3D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB54933-52F3-438C-97CD-40F398B647BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{101C7EA8-A83A-4BC6-A6D1-29C991CFA853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFFD34B5-13B0-425C-B068-98B089801BEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3C9BEA-1659-4CF1-8BB6-EA6ACA2F6F56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D68A4F-242D-4CE2-A8BA-8B43F06D2AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FED5B58-8470-4ED4-B78E-7484CDEB3AB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99211C89-9064-4CA7-B294-6FF8BD24A0C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4AC1E6-8BD5-4D93-A16B-EABE4438AD75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EDE8CE-3364-4A46-92D1-69FF17877046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF64F017-6D20-4476-9AE8-D8B88B619C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2DABCC-7C41-405D-9366-78A7A5372F2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432B79C3-7BCA-4917-A046-801306EB4E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8ED344-45A7-458D-B435-E6BE04FBDD71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07904A7F-DB01-4AF4-97E8-5D7826676C77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33F810E-51D6-4B6F-A55D-2D71EB114CF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED2FD0C-DA87-4B2F-89D3-6D37B62EBEE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
+          <a:ext cx="95250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="247650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E27895-2E49-4B4A-AD5B-4355071CC842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9304020"/>
           <a:ext cx="95250" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8853,16 +10157,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B1D3C7-DF9F-493F-A22A-3F7E8F4FA4C0}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="84.88671875" customWidth="1"/>
-    <col min="2" max="2" width="113.5546875" customWidth="1"/>
+    <col min="1" max="1" width="103.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="244.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -8871,93 +10175,563 @@
     <col min="8" max="8" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="51">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="40.799999999999997">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
+    <row r="44" spans="1:2">
+      <c r="A44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="61.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B47" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="17.399999999999999">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
+    <row r="48" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.8">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
+    <row r="49" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+    <row r="50" spans="1:2">
+      <c r="A50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
